--- a/datos.xlsx
+++ b/datos.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Valor (USD$)</t>
+          <t>Valor ($COP)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -465,21 +461,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45867</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/09/25</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Venta funko</t>
+          <t>Compra concentrado peces 1lb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>Egreso - Operacional</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,21 +486,23 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45867</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/09/25</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Venta llavero naruto</t>
+          <t>Venta pescado 1kg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>Ingreso - Venta</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>40000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -511,21 +511,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45867</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>02/09/25</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compra bolsas x 20</t>
+          <t>Pago aportes Amparo Cano septiembre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Egreso</t>
+          <t>Ingreso - Aporte</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>50000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,21 +536,23 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45867</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02/09/25</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Venta maneki neko</t>
+          <t>Pago aportes Luz Mary Septiembre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>Ingreso - Aporte</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>50000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -559,23 +563,73 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02/30/25</t>
+          <t>02/09/25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compra insumos</t>
+          <t>Pago aportes Sergio Hernán Septiembre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>egreso</t>
+          <t>Ingreso - Aporte</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>50000</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>Lina</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/09/25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Venta peces 1lb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ingreso - Venta</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lina</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05/09/25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pago servicios públicos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Egreso - Operacional</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>23800</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lina</t>
         </is>
